--- a/data/trans_orig/P02E$contratada-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Edad-trans_orig.xlsx
@@ -803,19 +803,19 @@
         <v>46955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42521</v>
+        <v>42152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49686</v>
+        <v>49636</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9287726940570423</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.841072125805545</v>
+        <v>0.8337685851723831</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827824768430321</v>
+        <v>0.9817955056272285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -824,19 +824,19 @@
         <v>77001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72413</v>
+        <v>71633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79719</v>
+        <v>79637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.955324046160803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.898407801654808</v>
+        <v>0.8887187955734991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9890511388307215</v>
+        <v>0.9880280400097761</v>
       </c>
     </row>
     <row r="6">
@@ -866,19 +866,19 @@
         <v>2720</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>359</v>
+        <v>854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7193</v>
+        <v>8073</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05379601674576749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007099737945698659</v>
+        <v>0.01688808512365594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1422806320471133</v>
+        <v>0.159689811324749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -887,19 +887,19 @@
         <v>2720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7211</v>
+        <v>7549</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03374251390037588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01045793125453079</v>
+        <v>0.01056971664196472</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08946934875537829</v>
+        <v>0.0936528351447912</v>
       </c>
     </row>
     <row r="7">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4460</v>
+        <v>4526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01743128919719018</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08822753191486125</v>
+        <v>0.08952809755175829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5492</v>
+        <v>4436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01093343993882107</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06813729612391935</v>
+        <v>0.05503815829274931</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9281</v>
+        <v>9570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01605631273522806</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05562461478950602</v>
+        <v>0.05735992260406209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7308</v>
+        <v>7779</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007255383633111445</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0241250110584962</v>
+        <v>0.02568068474717386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1025,19 +1025,19 @@
         <v>4877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1024</v>
+        <v>1214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12005</v>
+        <v>11994</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01038127996627602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002179859136357452</v>
+        <v>0.002583830690184707</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02555669165531693</v>
+        <v>0.02553317421447446</v>
       </c>
     </row>
     <row r="9">
@@ -1054,19 +1054,19 @@
         <v>139618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>128421</v>
+        <v>127042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148652</v>
+        <v>148885</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8368160974846758</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7697064062235527</v>
+        <v>0.7614430327742002</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8909639845458216</v>
+        <v>0.8923624070586402</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>256</v>
@@ -1075,19 +1075,19 @@
         <v>272531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>260277</v>
+        <v>260893</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>281843</v>
+        <v>281640</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8997284193823082</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8592724505021122</v>
+        <v>0.8613070919829628</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9304682062176527</v>
+        <v>0.9297998367529112</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>390</v>
@@ -1096,19 +1096,19 @@
         <v>412150</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>396803</v>
+        <v>396107</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>425108</v>
+        <v>424766</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8773833471690367</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8447134832070934</v>
+        <v>0.8432303163101633</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9049691828547012</v>
+        <v>0.9042396731123196</v>
       </c>
     </row>
     <row r="10">
@@ -1125,19 +1125,19 @@
         <v>24547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16403</v>
+        <v>15888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35718</v>
+        <v>35405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1471275897800962</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09831209753154421</v>
+        <v>0.09522727633400607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2140811318080526</v>
+        <v>0.2122044660079166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1146,19 +1146,19 @@
         <v>28175</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19018</v>
+        <v>19488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39632</v>
+        <v>39836</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09301619698458038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06278422847837828</v>
+        <v>0.06433792453378828</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1308404290742227</v>
+        <v>0.1315146050621558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1167,19 +1167,19 @@
         <v>52722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39838</v>
+        <v>40497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67887</v>
+        <v>67852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1122353728646873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08480768924472377</v>
+        <v>0.0862103199581984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1445172228775176</v>
+        <v>0.1444437268254148</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>4559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1695</v>
+        <v>1707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11728</v>
+        <v>12917</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01684953844152502</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006264790096614057</v>
+        <v>0.006309005019556497</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04334644613700585</v>
+        <v>0.04774092093854376</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1268,19 +1268,19 @@
         <v>9385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4443</v>
+        <v>4208</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18548</v>
+        <v>17523</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02393219727628393</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01132893095992286</v>
+        <v>0.01073140073559521</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04730011463090817</v>
+        <v>0.04468489628697583</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1289,19 +1289,19 @@
         <v>13944</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7451</v>
+        <v>7295</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24565</v>
+        <v>24324</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02104051392955614</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01124389860585039</v>
+        <v>0.01100752634971671</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03706745705223691</v>
+        <v>0.03670346260350646</v>
       </c>
     </row>
     <row r="13">
@@ -1318,19 +1318,19 @@
         <v>249239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>237544</v>
+        <v>239942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256059</v>
+        <v>257002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9211727546887746</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8779504033883734</v>
+        <v>0.8868124795810127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9463792425247749</v>
+        <v>0.9498646668644629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>350</v>
@@ -1339,19 +1339,19 @@
         <v>366680</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355011</v>
+        <v>354473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>376070</v>
+        <v>375057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9350761860114887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9053182304660188</v>
+        <v>0.9039468501026843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9590215820661161</v>
+        <v>0.9564395470730682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>592</v>
@@ -1360,19 +1360,19 @@
         <v>615919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>600841</v>
+        <v>600130</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>627504</v>
+        <v>628275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9293997413660176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9066472907271684</v>
+        <v>0.9055757511483479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9468815072850174</v>
+        <v>0.9480441979772906</v>
       </c>
     </row>
     <row r="14">
@@ -1389,19 +1389,19 @@
         <v>16769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10074</v>
+        <v>9962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26804</v>
+        <v>26054</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06197770686970037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03723435709849356</v>
+        <v>0.03681991136521779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09906787722116799</v>
+        <v>0.0962939621536387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1410,19 +1410,19 @@
         <v>15027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8797</v>
+        <v>8960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23959</v>
+        <v>24098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03832031147105844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02243426582116047</v>
+        <v>0.02284959393652054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06109882196900234</v>
+        <v>0.06145164526415414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1431,19 +1431,19 @@
         <v>31796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22685</v>
+        <v>22123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44075</v>
+        <v>43754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04797907068807444</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03423143227537772</v>
+        <v>0.03338303585497703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06650716732903966</v>
+        <v>0.06602397961709046</v>
       </c>
     </row>
     <row r="15">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5335</v>
+        <v>6231</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002671305241168936</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01360432391069778</v>
+        <v>0.01588872139008781</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5268</v>
+        <v>5646</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001580674016351822</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007949635310890579</v>
+        <v>0.00851954641165637</v>
       </c>
     </row>
     <row r="16">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4573</v>
+        <v>4605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008132412263300555</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04141946946774517</v>
+        <v>0.04170455653541032</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9654</v>
+        <v>9582</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02262934502841065</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07988726209796698</v>
+        <v>0.07929505111613301</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1572,16 +1572,16 @@
         <v>899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10631</v>
+        <v>10701</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01570784737555942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003888129579384172</v>
+        <v>0.003889521677445394</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04596835281489707</v>
+        <v>0.04627121487755104</v>
       </c>
     </row>
     <row r="17">
@@ -1598,19 +1598,19 @@
         <v>105558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99981</v>
+        <v>99824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108629</v>
+        <v>108545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9560191794710822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9055121305936455</v>
+        <v>0.9040845031903992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9838297549219085</v>
+        <v>0.9830769128393358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1619,19 +1619,19 @@
         <v>113208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104481</v>
+        <v>105763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>117295</v>
+        <v>117765</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9367946772335254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8645833352579666</v>
+        <v>0.8751887734533023</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9706129581092456</v>
+        <v>0.9745018415572355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>207</v>
@@ -1640,19 +1640,19 @@
         <v>218766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211336</v>
+        <v>209861</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>225209</v>
+        <v>224277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.94597333242014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9138460456624995</v>
+        <v>0.9074665287021244</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9738361995539668</v>
+        <v>0.9698030424938391</v>
       </c>
     </row>
     <row r="18">
@@ -1669,19 +1669,19 @@
         <v>3958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9623</v>
+        <v>9527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03584840826561733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0093845852056538</v>
+        <v>0.009458394605578145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08715792424397616</v>
+        <v>0.08628282018847581</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1690,19 +1690,19 @@
         <v>2893</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7874</v>
+        <v>8906</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02393629721412462</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007011192339081006</v>
+        <v>0.007065000729212506</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06515475549214909</v>
+        <v>0.07369527722137427</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1711,19 +1711,19 @@
         <v>6851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2861</v>
+        <v>2925</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12802</v>
+        <v>13418</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02962368295422009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01236995159570506</v>
+        <v>0.01264815642984968</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05535707184767001</v>
+        <v>0.05802278648897552</v>
       </c>
     </row>
     <row r="19">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7831</v>
+        <v>7136</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01663968052393937</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06480204024971448</v>
+        <v>0.05905237516377524</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7102</v>
+        <v>6124</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008695137250080441</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03070924503184633</v>
+        <v>0.02648297767561177</v>
       </c>
     </row>
     <row r="20">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6091</v>
+        <v>7249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0183274272079284</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09090560767405589</v>
+        <v>0.1081855346516764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6051</v>
+        <v>5081</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01445486965397931</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07122616882681199</v>
+        <v>0.05980708399654221</v>
       </c>
     </row>
     <row r="21">
@@ -1870,7 +1870,7 @@
         <v>16110</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12096</v>
+        <v>12003</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>17951</v>
@@ -1879,7 +1879,7 @@
         <v>0.8974605763651451</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6738220358878149</v>
+        <v>0.6686304335098374</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
@@ -1891,19 +1891,19 @@
         <v>63208</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56198</v>
+        <v>56620</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65961</v>
+        <v>65950</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9433128426976434</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8386990837106321</v>
+        <v>0.8449991012457362</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9844000554141854</v>
+        <v>0.9842413540235411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>77</v>
@@ -1912,19 +1912,19 @@
         <v>79319</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73038</v>
+        <v>72722</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83061</v>
+        <v>82929</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9336243284104451</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8597002977614188</v>
+        <v>0.8559726158827309</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.977676407753913</v>
+        <v>0.9761221949391513</v>
       </c>
     </row>
     <row r="22">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5855</v>
+        <v>5948</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1025394236348549</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3261779641121857</v>
+        <v>0.331369566490163</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8462</v>
+        <v>8429</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03835973009442819</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1262923375989375</v>
+        <v>0.1257872867994081</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1983,19 +1983,19 @@
         <v>4411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1069</v>
+        <v>1495</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10542</v>
+        <v>11006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05192080193557564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01257944533910257</v>
+        <v>0.01760152759799626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1240824891369167</v>
+        <v>0.1295452576926895</v>
       </c>
     </row>
     <row r="23">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5417</v>
+        <v>6022</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.148076586337654</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3821755253208766</v>
+        <v>0.4248781994779964</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5198</v>
+        <v>5238</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02243281372334077</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1107581672783298</v>
+        <v>0.1116174041380042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>3152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8204</v>
+        <v>8283</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05157605420939256</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01690868476296506</v>
+        <v>0.01686936135378717</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1342683494341272</v>
+        <v>0.135556365729216</v>
       </c>
     </row>
     <row r="25">
@@ -2134,19 +2134,19 @@
         <v>9406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6058</v>
+        <v>5711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12398</v>
+        <v>12345</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6636542393343334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4274518228691457</v>
+        <v>0.4029717505913062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8747660958880271</v>
+        <v>0.8709939638493432</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2155,19 +2155,19 @@
         <v>43187</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38607</v>
+        <v>37462</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46030</v>
+        <v>45885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9202183351923376</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8226226094420298</v>
+        <v>0.7982281815152079</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9807913538812408</v>
+        <v>0.9777169419037515</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2176,19 +2176,19 @@
         <v>52594</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46358</v>
+        <v>46066</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56519</v>
+        <v>57191</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8607079512704172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7586540316514911</v>
+        <v>0.7538806388976679</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9249429371833923</v>
+        <v>0.9359493286569471</v>
       </c>
     </row>
     <row r="26">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3465</v>
+        <v>3525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05711490444019282</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2444602129604053</v>
+        <v>0.2486910795750816</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6239</v>
+        <v>5740</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03823256738954769</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1329386734663464</v>
+        <v>0.1223024520950361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2247,19 +2247,19 @@
         <v>2604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7057</v>
+        <v>6998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0426123506303364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01325559821242203</v>
+        <v>0.01316706911634521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.115485413356179</v>
+        <v>0.114531080587588</v>
       </c>
     </row>
     <row r="27">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5721</v>
+        <v>6246</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1311542698878198</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4036863032127325</v>
+        <v>0.4407024928910474</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4527</v>
+        <v>4502</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01911628369477384</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0964533175237582</v>
+        <v>0.09592070848230422</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2318,19 +2318,19 @@
         <v>2756</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7428</v>
+        <v>6977</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04510364388985385</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0144375993523216</v>
+        <v>0.01450855809745388</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1215683742361784</v>
+        <v>0.1141869342495862</v>
       </c>
     </row>
     <row r="28">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3640</v>
+        <v>3911</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05071041976419468</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2247459161232679</v>
+        <v>0.2414213982772764</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4571</v>
+        <v>5695</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04432268787276326</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1797309941462093</v>
+        <v>0.2239660011508108</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6306</v>
+        <v>6207</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04680823009040296</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1514891517344463</v>
+        <v>0.1491201020933915</v>
       </c>
     </row>
     <row r="29">
@@ -2422,19 +2422,19 @@
         <v>11901</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7974</v>
+        <v>8020</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14568</v>
+        <v>14548</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7347490650366483</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4922987093335479</v>
+        <v>0.495112016762496</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8993451620468265</v>
+        <v>0.8981120861658216</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2443,19 +2443,19 @@
         <v>16281</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11559</v>
+        <v>11181</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20901</v>
+        <v>20925</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6402293943451999</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4545417110614079</v>
+        <v>0.4396693967180845</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8219203402344568</v>
+        <v>0.8228623128383915</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2464,19 +2464,19 @@
         <v>28182</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21588</v>
+        <v>21152</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33311</v>
+        <v>33693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6770081189213109</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5186120942548849</v>
+        <v>0.5081367174977973</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8002168047451816</v>
+        <v>0.8094091766788676</v>
       </c>
     </row>
     <row r="30">
@@ -2493,19 +2493,19 @@
         <v>3475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7364</v>
+        <v>7513</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2145405151991571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05341214802658571</v>
+        <v>0.05337013894734387</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4546057383062602</v>
+        <v>0.4638017666560367</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2514,19 +2514,19 @@
         <v>8022</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3435</v>
+        <v>3442</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12897</v>
+        <v>12777</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3154479177820369</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1350611812468144</v>
+        <v>0.1353368747915291</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5071534715839887</v>
+        <v>0.5024493932694176</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2535,19 +2535,19 @@
         <v>11497</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6580</v>
+        <v>6650</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17922</v>
+        <v>18233</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2761836509882862</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1580785241881054</v>
+        <v>0.1597487132155931</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4305452579080455</v>
+        <v>0.4380147868183302</v>
       </c>
     </row>
     <row r="31">
@@ -2615,19 +2615,19 @@
         <v>11056</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01765571628604829</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -2636,19 +2636,19 @@
         <v>17725</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01762263439399746</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -2657,19 +2657,19 @@
         <v>28781</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0176353277792307</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
     </row>
     <row r="33">
@@ -2686,19 +2686,19 @@
         <v>561879</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8972924733567382</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>886</v>
@@ -2707,19 +2707,19 @@
         <v>922050</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9167216021701596</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1426</v>
@@ -2728,19 +2728,19 @@
         <v>1483929</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.9092667257563206</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
     </row>
     <row r="34">
@@ -2757,19 +2757,19 @@
         <v>51400</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08208325448973298</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>60</v>
@@ -2778,19 +2778,19 @@
         <v>61201</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06084694943572775</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>111</v>
@@ -2799,19 +2799,19 @@
         <v>112601</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06899523190297009</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
     </row>
     <row r="35">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002968555867480471</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2849,19 +2849,19 @@
         <v>4837</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.004808814000115176</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2870,19 +2870,19 @@
         <v>6696</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004102714561478631</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
     </row>
     <row r="36">
@@ -3193,19 +3193,19 @@
         <v>37024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32631</v>
+        <v>31875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39999</v>
+        <v>40004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9029663964885335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7958243262831342</v>
+        <v>0.7773779070494755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9755116577659664</v>
+        <v>0.9756364730962975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -3214,19 +3214,19 @@
         <v>95787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>89777</v>
+        <v>89675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98780</v>
+        <v>99578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9424817717462557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8833412903180784</v>
+        <v>0.8823418672968005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719327441248782</v>
+        <v>0.9797843202587749</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -3235,19 +3235,19 @@
         <v>132812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125508</v>
+        <v>125373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137800</v>
+        <v>137762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9311223738610526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8799149026909625</v>
+        <v>0.8789737029842735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9660953162141728</v>
+        <v>0.965827164133175</v>
       </c>
     </row>
     <row r="6">
@@ -3264,19 +3264,19 @@
         <v>2994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7189</v>
+        <v>8040</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07301817499535809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02221156019311723</v>
+        <v>0.0220168431400774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1753212864488422</v>
+        <v>0.1960872588751437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3285,19 +3285,19 @@
         <v>4854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1918</v>
+        <v>1868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11238</v>
+        <v>10573</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04775600337559165</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01887050339840861</v>
+        <v>0.01838249112414879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1105711638255083</v>
+        <v>0.1040360515211139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -3306,19 +3306,19 @@
         <v>7848</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3737</v>
+        <v>3799</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14908</v>
+        <v>14890</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05501806420638516</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02620160919501838</v>
+        <v>0.02663451266956879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1045206965565662</v>
+        <v>0.1043910838555831</v>
       </c>
     </row>
     <row r="7">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5179</v>
+        <v>5053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02401542851610842</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1263191913372519</v>
+        <v>0.1232312046661727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5133</v>
+        <v>4548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009762224878152714</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05050869462281101</v>
+        <v>0.04474482272878672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6430</v>
+        <v>6023</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01385956193256224</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04508112825186688</v>
+        <v>0.04222544127222643</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>2855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8518</v>
+        <v>8040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01332472541714343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00430942191316503</v>
+        <v>0.004282765937592071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0397610397036094</v>
+        <v>0.03752820449363015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12557</v>
+        <v>10843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009212105322724103</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03215309250905098</v>
+        <v>0.02776267554083183</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3452,19 +3452,19 @@
         <v>6452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1937</v>
+        <v>1912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15284</v>
+        <v>14803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01066897054853092</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003202253140267099</v>
+        <v>0.003161912612580887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02527128227312246</v>
+        <v>0.02447618784416625</v>
       </c>
     </row>
     <row r="9">
@@ -3481,19 +3481,19 @@
         <v>196879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>188445</v>
+        <v>188498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>203536</v>
+        <v>203697</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.918965418015064</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8795967665438799</v>
+        <v>0.8798462152548516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9500367315077588</v>
+        <v>0.9507893848887308</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>331</v>
@@ -3502,19 +3502,19 @@
         <v>354256</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>340544</v>
+        <v>340425</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>365091</v>
+        <v>364531</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9070850932020295</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.871974749811351</v>
+        <v>0.8716697100723289</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9348286345980698</v>
+        <v>0.9333965785450624</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>521</v>
@@ -3523,19 +3523,19 @@
         <v>551135</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>536177</v>
+        <v>534444</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>563905</v>
+        <v>563518</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.911293610325915</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8865608113045605</v>
+        <v>0.8836953424451701</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9324091412653635</v>
+        <v>0.9317689295868189</v>
       </c>
     </row>
     <row r="10">
@@ -3552,19 +3552,19 @@
         <v>13582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7078</v>
+        <v>7459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21288</v>
+        <v>21077</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06339782995925382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03303652323212245</v>
+        <v>0.03481774080748074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09936629372345786</v>
+        <v>0.0983816377550909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3573,19 +3573,19 @@
         <v>29594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19694</v>
+        <v>20216</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42177</v>
+        <v>40936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07577584226131756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05042692073918675</v>
+        <v>0.05176315998396507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1079950432677937</v>
+        <v>0.1048173691969185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3594,19 +3594,19 @@
         <v>43176</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31847</v>
+        <v>32661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56811</v>
+        <v>59754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07139102302845045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05265781651952984</v>
+        <v>0.054003971804372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09393650219226964</v>
+        <v>0.09880229879384404</v>
       </c>
     </row>
     <row r="11">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4704</v>
+        <v>4267</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004312026608538673</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02195497893206274</v>
+        <v>0.01991872190014425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3644,19 +3644,19 @@
         <v>3096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9088</v>
+        <v>8639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007926959213928901</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002407230927947864</v>
+        <v>0.002385155795442161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02326922160017645</v>
+        <v>0.02211989232886681</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -3665,19 +3665,19 @@
         <v>4020</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9917</v>
+        <v>10600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006646396097103532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001686626570743998</v>
+        <v>0.001696540852626529</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01639754591791062</v>
+        <v>0.01752755689878777</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>7693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2788</v>
+        <v>2845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16794</v>
+        <v>17539</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01855978768396593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00672674515554733</v>
+        <v>0.006864729618227694</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04051894346076276</v>
+        <v>0.04231676636187461</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3719,19 +3719,19 @@
         <v>7672</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3675</v>
+        <v>3177</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17325</v>
+        <v>15508</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01336418796493466</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006401566276940618</v>
+        <v>0.005534872818952702</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03018113089813834</v>
+        <v>0.02701619633035848</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3740,19 +3740,19 @@
         <v>15364</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8158</v>
+        <v>8411</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28170</v>
+        <v>27230</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01554263573208166</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008253113364463395</v>
+        <v>0.008509109525686207</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02849690620000358</v>
+        <v>0.02754672544802653</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>383707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>370665</v>
+        <v>370632</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>393716</v>
+        <v>392914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9257718288276636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8943075294008249</v>
+        <v>0.8942263800471302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9499213871058079</v>
+        <v>0.9479869313775054</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>510</v>
@@ -3790,19 +3790,19 @@
         <v>542773</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>530870</v>
+        <v>529764</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>552742</v>
+        <v>552067</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9455248733828187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9247896247985413</v>
+        <v>0.922863539553179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9628913001994284</v>
+        <v>0.9617150140044106</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>879</v>
@@ -3811,19 +3811,19 @@
         <v>926479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>908487</v>
+        <v>908911</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>942220</v>
+        <v>940723</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9372426772683042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9190411043714913</v>
+        <v>0.9194701066646819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9531666548148696</v>
+        <v>0.9516514924510884</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>21253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13572</v>
+        <v>13884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32580</v>
+        <v>31838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05127800152063693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03274640355658651</v>
+        <v>0.03349726139657403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07860507068762584</v>
+        <v>0.07681496221709463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -3861,19 +3861,19 @@
         <v>22602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14611</v>
+        <v>14210</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33320</v>
+        <v>33812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03937278485361596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0254528402224645</v>
+        <v>0.02475354150721813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05804373655314142</v>
+        <v>0.05890140001761669</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -3882,19 +3882,19 @@
         <v>43855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31691</v>
+        <v>32679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59590</v>
+        <v>59412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04436448823112493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03205935336739078</v>
+        <v>0.03305838542803326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06028198006518042</v>
+        <v>0.06010271440971512</v>
       </c>
     </row>
     <row r="15">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5623</v>
+        <v>6406</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004390381967733522</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01356736085486242</v>
+        <v>0.01545628149182434</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6792</v>
+        <v>7016</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003474092105388038</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01183202786780591</v>
+        <v>0.012222769097214</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -3953,19 +3953,19 @@
         <v>3814</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>931</v>
+        <v>997</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9354</v>
+        <v>9672</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003858280594230694</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009421172575593587</v>
+        <v>0.001009086472385535</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009462705864125714</v>
+        <v>0.009784609995363814</v>
       </c>
     </row>
     <row r="16">
@@ -3986,19 +3986,19 @@
         <v>3095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8567</v>
+        <v>8165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01353212644326976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004202359450294173</v>
+        <v>0.004174872056444304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03745755151964778</v>
+        <v>0.03570367466386933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4007,19 +4007,19 @@
         <v>4286</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10563</v>
+        <v>10623</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01638094893551963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004137075950922708</v>
+        <v>0.004119389739686114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04037190090609055</v>
+        <v>0.04060216492834755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4028,19 +4028,19 @@
         <v>7381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3263</v>
+        <v>3187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14448</v>
+        <v>14430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01505220892678671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006654067139853849</v>
+        <v>0.006500616266554075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02946499834834746</v>
+        <v>0.02942988077765481</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>216439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>208487</v>
+        <v>207949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221904</v>
+        <v>221514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9463914258939399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9116230544079407</v>
+        <v>0.9092695109819385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9702888322746687</v>
+        <v>0.9685810585846616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>216</v>
@@ -4078,19 +4078,19 @@
         <v>247573</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238276</v>
+        <v>239848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>253124</v>
+        <v>254090</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9462635663094995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9107285838393161</v>
+        <v>0.9167390840064925</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9674792030018444</v>
+        <v>0.9711750288510317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>410</v>
@@ -4099,19 +4099,19 @@
         <v>464013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>452525</v>
+        <v>451468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>473239</v>
+        <v>472621</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9463232022277809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9228957229238146</v>
+        <v>0.9207391902155608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9651391708082346</v>
+        <v>0.9638799992035143</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>5917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2064</v>
+        <v>2025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11687</v>
+        <v>12149</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02587345037011517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009025174652278678</v>
+        <v>0.008855626900374626</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05110211336604555</v>
+        <v>0.05312353103570341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4149,19 +4149,19 @@
         <v>8759</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4372</v>
+        <v>4347</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17357</v>
+        <v>16145</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03347913676266603</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01671210834639994</v>
+        <v>0.01661384779950494</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06633978392988889</v>
+        <v>0.06170897907832336</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -4170,19 +4170,19 @@
         <v>14676</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7922</v>
+        <v>8483</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23741</v>
+        <v>24418</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02993171328115712</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01615737331835691</v>
+        <v>0.01730095198665656</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04841781599320245</v>
+        <v>0.04979972337828859</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>3248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8690</v>
+        <v>8571</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01420299729267517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004295951968225469</v>
+        <v>0.004203276627764886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03799634797507511</v>
+        <v>0.03747643540626733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5126</v>
+        <v>5097</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003876347992314843</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01959092102617628</v>
+        <v>0.01948120950935384</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -4241,19 +4241,19 @@
         <v>4262</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1120</v>
+        <v>1034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9955</v>
+        <v>10944</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00869287556427531</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002284105876536143</v>
+        <v>0.002109462370091128</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02030344646188128</v>
+        <v>0.02231898966259257</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>6575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2546</v>
+        <v>2117</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13302</v>
+        <v>12895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06539981491496469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02532392301902739</v>
+        <v>0.02105341611842133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1323137934904305</v>
+        <v>0.1282655139727047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4308,19 +4308,19 @@
         <v>6575</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2594</v>
+        <v>2852</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14279</v>
+        <v>13387</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0439255643406323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0173322886681982</v>
+        <v>0.01905653835929493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09539921470711282</v>
+        <v>0.08943796788455372</v>
       </c>
     </row>
     <row r="21">
@@ -4337,19 +4337,19 @@
         <v>42898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36731</v>
+        <v>37409</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47026</v>
+        <v>46949</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8728460907088269</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.747380291504524</v>
+        <v>0.7611686412830293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9568486439948807</v>
+        <v>0.9552833421426988</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>75</v>
@@ -4358,19 +4358,19 @@
         <v>85407</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77505</v>
+        <v>75274</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>91990</v>
+        <v>91307</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8495617231653192</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7709600344745151</v>
+        <v>0.7487625092424527</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9150405799216896</v>
+        <v>0.9082485479900426</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -4379,19 +4379,19 @@
         <v>128305</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>117885</v>
+        <v>117648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>136191</v>
+        <v>135744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8572072240546456</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7875875802443111</v>
+        <v>0.7860099460518022</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9098958845558648</v>
+        <v>0.9069048212012949</v>
       </c>
     </row>
     <row r="22">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6711</v>
+        <v>6661</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04426632990659113</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1365565634410975</v>
+        <v>0.1355255002637362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4429,19 +4429,19 @@
         <v>4306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9742</v>
+        <v>10176</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04283418986772804</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01110215347191662</v>
+        <v>0.01060553063020893</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09690993988523747</v>
+        <v>0.1012215906041277</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -4450,19 +4450,19 @@
         <v>6482</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12866</v>
+        <v>13132</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04330443789659583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01496707432732695</v>
+        <v>0.0149401707053012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08595722042453623</v>
+        <v>0.08773507829508237</v>
       </c>
     </row>
     <row r="23">
@@ -4479,19 +4479,19 @@
         <v>4074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9749</v>
+        <v>8748</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08288757938458194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02129626485369873</v>
+        <v>0.02119228370859395</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1983574903503306</v>
+        <v>0.1779993278996066</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -4500,19 +4500,19 @@
         <v>4243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9847</v>
+        <v>9900</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04220427205198803</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01067008313765883</v>
+        <v>0.01083937598169439</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09794618634067548</v>
+        <v>0.09847840667433599</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -4521,19 +4521,19 @@
         <v>8317</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3264</v>
+        <v>3988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14438</v>
+        <v>15618</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05556277370812635</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02180471162595828</v>
+        <v>0.02664615319186835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09645914744787827</v>
+        <v>0.1043437961253856</v>
       </c>
     </row>
     <row r="24">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6566</v>
+        <v>7468</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09208247560846458</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2945128032588551</v>
+        <v>0.3349814131755231</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5066</v>
+        <v>4932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02074499627611133</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1071464659948267</v>
+        <v>0.1042994316938385</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4596,19 +4596,19 @@
         <v>3034</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8370</v>
+        <v>8234</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04360279275447796</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0139159145366496</v>
+        <v>0.01384967272999576</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1203067698947766</v>
+        <v>0.1183414122877879</v>
       </c>
     </row>
     <row r="25">
@@ -4625,19 +4625,19 @@
         <v>15120</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10387</v>
+        <v>9602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19152</v>
+        <v>19140</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6782195405549161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4659142300728965</v>
+        <v>0.4307321261947539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8591030265132285</v>
+        <v>0.8585728140075433</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4646,19 +4646,19 @@
         <v>40451</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34457</v>
+        <v>34597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8555009041562842</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7287369803422025</v>
+        <v>0.7317098406168019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9382835462871117</v>
+        <v>0.93718810536415</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -4667,19 +4667,19 @@
         <v>55570</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48667</v>
+        <v>48063</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61556</v>
+        <v>61491</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7986968038918445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6994760451244642</v>
+        <v>0.6908047350205406</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8847278684643294</v>
+        <v>0.8837933686975379</v>
       </c>
     </row>
     <row r="26">
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5109</v>
+        <v>4067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04292713986634043</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2291925653703705</v>
+        <v>0.1824228129264638</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4717,19 +4717,19 @@
         <v>2915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7400</v>
+        <v>8098</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06165449166265302</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01971823612341033</v>
+        <v>0.01978384659396405</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1564961300798754</v>
+        <v>0.1712686625804357</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -4738,19 +4738,19 @@
         <v>3872</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8878</v>
+        <v>8911</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05565391524833124</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01396046303200158</v>
+        <v>0.01380294868372617</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1276000303322486</v>
+        <v>0.1280754576554899</v>
       </c>
     </row>
     <row r="27">
@@ -4767,19 +4767,19 @@
         <v>4164</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1076</v>
+        <v>1014</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8836</v>
+        <v>8559</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1867708439702789</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04828363501779493</v>
+        <v>0.04549543343166001</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3963387383333361</v>
+        <v>0.3839507415973404</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -4791,16 +4791,16 @@
         <v>946</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8099</v>
+        <v>7971</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06209960790495146</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02001252399861433</v>
+        <v>0.02001487926112143</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1712778948825807</v>
+        <v>0.1685793752263589</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -4809,19 +4809,19 @@
         <v>7100</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3058</v>
+        <v>3068</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13040</v>
+        <v>13162</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1020464881053463</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0439459449099464</v>
+        <v>0.0440954865504827</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1874216378392102</v>
+        <v>0.1891782356944297</v>
       </c>
     </row>
     <row r="28">
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5287</v>
+        <v>4427</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0672749921631994</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3536732820737382</v>
+        <v>0.2961672578034876</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -4863,19 +4863,19 @@
         <v>5509</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2244</v>
+        <v>2121</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11106</v>
+        <v>11011</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1336031777844611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05441984023396555</v>
+        <v>0.05144484837560828</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2693433772974221</v>
+        <v>0.267056538285381</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -4884,19 +4884,19 @@
         <v>6514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2285</v>
+        <v>3089</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12025</v>
+        <v>12963</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1159538336763145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04067701757101599</v>
+        <v>0.05498226916503936</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2140352997882573</v>
+        <v>0.2307296776154371</v>
       </c>
     </row>
     <row r="29">
@@ -4913,19 +4913,19 @@
         <v>8520</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3688</v>
+        <v>4292</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12607</v>
+        <v>12645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5699442894504427</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2466924909676368</v>
+        <v>0.287141625103383</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8433431986401798</v>
+        <v>0.8458602011255894</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -4934,19 +4934,19 @@
         <v>23868</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16731</v>
+        <v>17902</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29661</v>
+        <v>29758</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5788685490392319</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4057733295282986</v>
+        <v>0.4341703000407248</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7193640356610402</v>
+        <v>0.7217133379794634</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -4955,19 +4955,19 @@
         <v>32388</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24775</v>
+        <v>24724</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39713</v>
+        <v>40829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5764938824187344</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.440988466297226</v>
+        <v>0.4400735341986671</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7068680342830457</v>
+        <v>0.7267451913631816</v>
       </c>
     </row>
     <row r="30">
@@ -4984,19 +4984,19 @@
         <v>4396</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9836</v>
+        <v>9797</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2940684493588513</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07745758278710831</v>
+        <v>0.07651774564007284</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6579974359615326</v>
+        <v>0.6553823375692386</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -5005,19 +5005,19 @@
         <v>7533</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3190</v>
+        <v>3306</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13066</v>
+        <v>13309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1826911234506982</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07735610049136415</v>
+        <v>0.08017509856801186</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3168977057766222</v>
+        <v>0.3227871234810513</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -5026,19 +5026,19 @@
         <v>11929</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6583</v>
+        <v>5669</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20171</v>
+        <v>19140</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2123276457283114</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1171837435956005</v>
+        <v>0.1009103761808767</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3590407700217546</v>
+        <v>0.3406850319204922</v>
       </c>
     </row>
     <row r="31">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5241</v>
+        <v>4525</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06871226902750648</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3506088575118603</v>
+        <v>0.3027033413338935</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5076,19 +5076,19 @@
         <v>5399</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2134</v>
+        <v>2075</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10988</v>
+        <v>10862</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1309466781241253</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05175498679146178</v>
+        <v>0.0503200428145406</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2664819169342322</v>
+        <v>0.2634292048260128</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5097,19 +5097,19 @@
         <v>6426</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2182</v>
+        <v>2247</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12641</v>
+        <v>13148</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1143866517759705</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03883859592995626</v>
+        <v>0.04000212358559778</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2249968911889398</v>
+        <v>0.2340336239195396</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>16701</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01695822363507884</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -5151,19 +5151,19 @@
         <v>28619</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01886704668329083</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -5172,19 +5172,19 @@
         <v>45320</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01811563135400676</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
     </row>
     <row r="33">
@@ -5201,19 +5201,19 @@
         <v>900587</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.914483382701484</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1286</v>
@@ -5222,19 +5222,19 @@
         <v>1390114</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9164193912481641</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2136</v>
@@ -5243,19 +5243,19 @@
         <v>2290701</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.9156572742457719</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
     </row>
     <row r="34">
@@ -5272,19 +5272,19 @@
         <v>51276</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05206670902568295</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>78</v>
@@ -5293,19 +5293,19 @@
         <v>80562</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05310987740647508</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -5314,19 +5314,19 @@
         <v>131838</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05269923027337079</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
     </row>
     <row r="35">
@@ -5343,19 +5343,19 @@
         <v>16241</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01649168463775417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -5364,19 +5364,19 @@
         <v>19675</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01297031741754995</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>35</v>
@@ -5385,19 +5385,19 @@
         <v>35916</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01435651678882139</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
     </row>
     <row r="36">
@@ -5708,19 +5708,19 @@
         <v>36568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31055</v>
+        <v>31228</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39664</v>
+        <v>39706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8972445850257708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7619660306018073</v>
+        <v>0.7662125705734513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9732122495060865</v>
+        <v>0.9742247869688078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -5729,19 +5729,19 @@
         <v>75262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67855</v>
+        <v>67072</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81297</v>
+        <v>80950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.837473090230786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7550480785594802</v>
+        <v>0.7463417586074973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9046227375882888</v>
+        <v>0.9007608769009889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -5750,19 +5750,19 @@
         <v>111831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102389</v>
+        <v>103311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119128</v>
+        <v>118393</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.856122419011317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7838365963130731</v>
+        <v>0.7908986122102878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9119843610048236</v>
+        <v>0.9063604489239787</v>
       </c>
     </row>
     <row r="6">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6233</v>
+        <v>6452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04936499077243608</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1529359417600213</v>
+        <v>0.158313039301817</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -5800,19 +5800,19 @@
         <v>14606</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8571</v>
+        <v>8918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22013</v>
+        <v>22796</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1625269097692141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09537726241171122</v>
+        <v>0.09923912309901117</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2449519214405199</v>
+        <v>0.2536582413925028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -5821,19 +5821,19 @@
         <v>16618</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9831</v>
+        <v>10623</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25028</v>
+        <v>24819</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1272192126797342</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07525919630768145</v>
+        <v>0.08132336455181252</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1916004289738553</v>
+        <v>0.1900019681830409</v>
       </c>
     </row>
     <row r="7">
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7512</v>
+        <v>7673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05339042420179321</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1843218009913058</v>
+        <v>0.1882545923349232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7621</v>
+        <v>6614</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01665836830894872</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05834614793362491</v>
+        <v>0.05063631205777686</v>
       </c>
     </row>
     <row r="8">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5138</v>
+        <v>5126</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005865255168968278</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02964675153853984</v>
+        <v>0.02957825925760203</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5127</v>
+        <v>6139</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002177982922619567</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01098629117728517</v>
+        <v>0.01315486850730265</v>
       </c>
     </row>
     <row r="9">
@@ -5980,19 +5980,19 @@
         <v>162300</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>155234</v>
+        <v>153997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>167556</v>
+        <v>167394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9364946052111427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8957203636946577</v>
+        <v>0.8885842903349158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9668226044419678</v>
+        <v>0.9658874297319385</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>274</v>
@@ -6001,19 +6001,19 @@
         <v>267521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>255923</v>
+        <v>256750</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>276195</v>
+        <v>276326</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9117854846150225</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8722568743381982</v>
+        <v>0.8750757289043248</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9413512901607715</v>
+        <v>0.9417970136570565</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>430</v>
@@ -6022,19 +6022,19 @@
         <v>429821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>417547</v>
+        <v>415584</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>440180</v>
+        <v>439580</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9209608812756871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8946629898641568</v>
+        <v>0.8904567389480277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9431580558159726</v>
+        <v>0.9418715146936796</v>
       </c>
     </row>
     <row r="10">
@@ -6051,19 +6051,19 @@
         <v>8053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3879</v>
+        <v>3804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15664</v>
+        <v>15955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04646682467190057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02237949364967714</v>
+        <v>0.02194976690975737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09038291922348717</v>
+        <v>0.09206401829912952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -6072,19 +6072,19 @@
         <v>25882</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17208</v>
+        <v>17077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37480</v>
+        <v>36653</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08821451538497752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05864870983922876</v>
+        <v>0.05820298634294326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1277431256618027</v>
+        <v>0.1249242710956752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -6093,19 +6093,19 @@
         <v>33935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24230</v>
+        <v>24425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45891</v>
+        <v>47522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07271207690404792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05191644900468022</v>
+        <v>0.05233398289264615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09832958205674572</v>
+        <v>0.1018244637602937</v>
       </c>
     </row>
     <row r="11">
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6815</v>
+        <v>5889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01117331494798846</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03932094508706841</v>
+        <v>0.03398119550350909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7002</v>
+        <v>7166</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004149058897645449</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0150034218626337</v>
+        <v>0.01535362281602724</v>
       </c>
     </row>
     <row r="12">
@@ -6189,19 +6189,19 @@
         <v>4492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1054</v>
+        <v>938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11063</v>
+        <v>11327</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01440746305134731</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00338211637699792</v>
+        <v>0.003008022320838522</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03548198776448578</v>
+        <v>0.03632969052175217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -6210,19 +6210,19 @@
         <v>9236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4715</v>
+        <v>4654</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17530</v>
+        <v>17207</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0226738855616847</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01157589079511015</v>
+        <v>0.01142614357989693</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04303659783061973</v>
+        <v>0.04224428160353019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -6231,19 +6231,19 @@
         <v>13728</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7645</v>
+        <v>7689</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23064</v>
+        <v>23531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01908981492720771</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01063144765020192</v>
+        <v>0.01069179855056314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03207362691903783</v>
+        <v>0.03272198906942154</v>
       </c>
     </row>
     <row r="13">
@@ -6260,19 +6260,19 @@
         <v>287815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>276521</v>
+        <v>275634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>295464</v>
+        <v>295520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9231201387161191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8868964052517261</v>
+        <v>0.8840523063777502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9476523464630606</v>
+        <v>0.947832836129234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>362</v>
@@ -6281,19 +6281,19 @@
         <v>361000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346880</v>
+        <v>346631</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>372940</v>
+        <v>372808</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8862675903496708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8516029685669361</v>
+        <v>0.8509907659030811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9155811782806813</v>
+        <v>0.9152570065776801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>637</v>
@@ -6302,19 +6302,19 @@
         <v>648815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>631307</v>
+        <v>631421</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>663302</v>
+        <v>662819</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9022457400559867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.877899299657412</v>
+        <v>0.8780582182370857</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9223919654491139</v>
+        <v>0.9217206733478657</v>
       </c>
     </row>
     <row r="14">
@@ -6331,19 +6331,19 @@
         <v>18444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11428</v>
+        <v>11652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27219</v>
+        <v>28472</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05915551548647582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0366548900785532</v>
+        <v>0.03737308448200631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08729938773437732</v>
+        <v>0.09131972177310947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -6352,19 +6352,19 @@
         <v>36151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25458</v>
+        <v>25782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48601</v>
+        <v>49867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0887514118383403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06250059822483615</v>
+        <v>0.06329612666029158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.119318366532175</v>
+        <v>0.1224263012273517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -6373,19 +6373,19 @@
         <v>54595</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41504</v>
+        <v>41706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69337</v>
+        <v>69478</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07591952683813689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05771555783351787</v>
+        <v>0.0579968294678261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09641995205738069</v>
+        <v>0.09661720168405667</v>
       </c>
     </row>
     <row r="15">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6180</v>
+        <v>5203</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00331688274605779</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01982155179301959</v>
+        <v>0.01668802710210532</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5074</v>
+        <v>5384</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002307112250304123</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01245791459930964</v>
+        <v>0.01321883673966233</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6836</v>
+        <v>7102</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002744918178668686</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009506049131666158</v>
+        <v>0.009875458624463162</v>
       </c>
     </row>
     <row r="16">
@@ -6477,19 +6477,19 @@
         <v>7395</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3178</v>
+        <v>3067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13918</v>
+        <v>12886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04713976383172097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02025586179148306</v>
+        <v>0.01955111839354419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08871967028808078</v>
+        <v>0.08213947978018031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6498,19 +6498,19 @@
         <v>4269</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10756</v>
+        <v>10710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02342307200840045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005968873472622665</v>
+        <v>0.00600035168296831</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0590135727976696</v>
+        <v>0.0587628181281468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6519,19 +6519,19 @@
         <v>11664</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6276</v>
+        <v>6232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20209</v>
+        <v>20114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03439413352127403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0185066021511005</v>
+        <v>0.01837701285973205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05959133622603727</v>
+        <v>0.05931114086372181</v>
       </c>
     </row>
     <row r="17">
@@ -6548,19 +6548,19 @@
         <v>143086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134536</v>
+        <v>134627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148661</v>
+        <v>149441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9120752955799533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8575711085212314</v>
+        <v>0.8581530967505132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9476073839233919</v>
+        <v>0.9525821301065284</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>156</v>
@@ -6569,19 +6569,19 @@
         <v>167847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159025</v>
+        <v>159024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174771</v>
+        <v>174015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9209463510104892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8725429323421635</v>
+        <v>0.8725367963777863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9589345603394919</v>
+        <v>0.9547896390374382</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>285</v>
@@ -6590,19 +6590,19 @@
         <v>310933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299050</v>
+        <v>300077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>319501</v>
+        <v>320153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9168427055468827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8818035162767549</v>
+        <v>0.8848336154487204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9421085065450958</v>
+        <v>0.9440297912337825</v>
       </c>
     </row>
     <row r="18">
@@ -6619,19 +6619,19 @@
         <v>7498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3204</v>
+        <v>3195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15040</v>
+        <v>14506</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04779497871380033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02042263178198802</v>
+        <v>0.02036869319848048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09586809033320776</v>
+        <v>0.09246424654042296</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -6640,19 +6640,19 @@
         <v>8209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3136</v>
+        <v>3227</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15778</v>
+        <v>16050</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0450412423110037</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01720798217376302</v>
+        <v>0.01770698529308542</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08657170281398181</v>
+        <v>0.0880618738865544</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -6661,19 +6661,19 @@
         <v>15707</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8667</v>
+        <v>9349</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25526</v>
+        <v>25760</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04631508824577334</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0255574313639748</v>
+        <v>0.0275684345772001</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07526814368903716</v>
+        <v>0.07595863376481282</v>
       </c>
     </row>
     <row r="19">
@@ -6703,19 +6703,19 @@
         <v>2950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7962</v>
+        <v>7995</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01618486109632595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004957602872809132</v>
+        <v>0.004983358325158292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04368755309151346</v>
+        <v>0.04386959551118065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -6724,19 +6724,19 @@
         <v>2950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8227</v>
+        <v>7853</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008697935517164542</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002662604305824415</v>
+        <v>0.002652247861003564</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02425879972267141</v>
+        <v>0.02315550510845515</v>
       </c>
     </row>
     <row r="20">
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7291</v>
+        <v>7246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05399490351810352</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1811870269046718</v>
+        <v>0.1800629209282645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4689</v>
+        <v>4031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01705570244261631</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08258247742421833</v>
+        <v>0.07099735482018274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6799,19 +6799,19 @@
         <v>3141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8252</v>
+        <v>8769</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03237738935154094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0</v>
+        <v>0.009864374869474741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08505814546895636</v>
+        <v>0.09038318212371513</v>
       </c>
     </row>
     <row r="21">
@@ -6828,19 +6828,19 @@
         <v>35937</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30505</v>
+        <v>30444</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39165</v>
+        <v>39117</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8930159819970972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7580488070404692</v>
+        <v>0.756511818219239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9732282730264203</v>
+        <v>0.9720344225162025</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -6849,19 +6849,19 @@
         <v>44772</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37361</v>
+        <v>37490</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50026</v>
+        <v>50446</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7885471567419909</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6580194819489694</v>
+        <v>0.6602881633089733</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8810888038694077</v>
+        <v>0.8884817252510543</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -6870,19 +6870,19 @@
         <v>80710</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71968</v>
+        <v>72406</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>87790</v>
+        <v>87284</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8318788635926861</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7417813141243417</v>
+        <v>0.7462956747343813</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9048575681176411</v>
+        <v>0.8996414218457017</v>
       </c>
     </row>
     <row r="22">
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5624</v>
+        <v>5300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02575005689562647</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1397469381442357</v>
+        <v>0.1317061589276221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6920,19 +6920,19 @@
         <v>6688</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3066</v>
+        <v>2381</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12716</v>
+        <v>13016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1177887800304869</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05399695966894</v>
+        <v>0.04193065520893837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2239596229967891</v>
+        <v>0.2292431287691924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6941,19 +6941,19 @@
         <v>7724</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3538</v>
+        <v>3250</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14712</v>
+        <v>14919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07961284610902131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03646673956193557</v>
+        <v>0.03349827699644637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1516422839553103</v>
+        <v>0.1537738052468231</v>
       </c>
     </row>
     <row r="23">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6527</v>
+        <v>7546</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05298911448479929</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1622037840553146</v>
+        <v>0.1875067880711163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6991,19 +6991,19 @@
         <v>4350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10097</v>
+        <v>9962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07660836078490586</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01971235113614484</v>
+        <v>0.01947971260077791</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1778256588791947</v>
+        <v>0.1754492124367515</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -7012,19 +7012,19 @@
         <v>6482</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2261</v>
+        <v>2181</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12977</v>
+        <v>12581</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06681154097563401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0233045945477905</v>
+        <v>0.02248080709548423</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1337537114486143</v>
+        <v>0.1296706346317357</v>
       </c>
     </row>
     <row r="24">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4964</v>
+        <v>3924</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04479444983520119</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2336620224908682</v>
+        <v>0.1846870681811538</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7066,19 +7066,19 @@
         <v>4174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8887</v>
+        <v>9547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1145002332574275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02866631684320616</v>
+        <v>0.02876836488938609</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2437852253098183</v>
+        <v>0.2618932114334266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -7087,19 +7087,19 @@
         <v>5126</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11094</v>
+        <v>10402</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08883331801400528</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0338237121103863</v>
+        <v>0.03395874474279943</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1922710313421027</v>
+        <v>0.1802743939570185</v>
       </c>
     </row>
     <row r="25">
@@ -7116,19 +7116,19 @@
         <v>17296</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12725</v>
+        <v>12953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20257</v>
+        <v>20276</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8140989410153102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5989290078104246</v>
+        <v>0.6096528432053245</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9534391013210721</v>
+        <v>0.9543347110497831</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -7137,19 +7137,19 @@
         <v>30305</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25082</v>
+        <v>23738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34315</v>
+        <v>33590</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8313366546872835</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6880527249096031</v>
+        <v>0.6511817168886096</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9413451732507525</v>
+        <v>0.9214676105321429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -7158,19 +7158,19 @@
         <v>47601</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40555</v>
+        <v>40386</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52575</v>
+        <v>52509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.82498942043946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.702873737477566</v>
+        <v>0.6999412340920886</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9111912520408865</v>
+        <v>0.9100439653999057</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6303</v>
+        <v>6244</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09659279224793277</v>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2966546524195987</v>
+        <v>0.2939060381091178</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4406</v>
+        <v>4367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02798266694366513</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1208721461948139</v>
+        <v>0.1197885909194322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -7229,19 +7229,19 @@
         <v>3072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8096</v>
+        <v>7979</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05324614128636514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01667862370724676</v>
+        <v>0.01676676068801309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1403129037261625</v>
+        <v>0.138287949334686</v>
       </c>
     </row>
     <row r="27">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5490</v>
+        <v>4908</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04451381690155581</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2584194183637851</v>
+        <v>0.2309893797265577</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5097</v>
+        <v>4243</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02618044511162382</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1398225035317527</v>
+        <v>0.1164072780085797</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6693</v>
+        <v>5903</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03293112026016954</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1159911323411098</v>
+        <v>0.1023083936622476</v>
       </c>
     </row>
     <row r="28">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4719</v>
+        <v>5118</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1276772136624364</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3789395099340193</v>
+        <v>0.4110159171007919</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -7354,19 +7354,19 @@
         <v>3892</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10542</v>
+        <v>10247</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08668484073534688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02726295462397965</v>
+        <v>0.02734351711560412</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2347854298225473</v>
+        <v>0.2282331027121942</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -7375,19 +7375,19 @@
         <v>5482</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2005</v>
+        <v>2039</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11467</v>
+        <v>11784</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09558534823540633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03496545902620875</v>
+        <v>0.03554800354524602</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1999321753913039</v>
+        <v>0.2054695763353865</v>
       </c>
     </row>
     <row r="29">
@@ -7404,19 +7404,19 @@
         <v>8648</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5161</v>
+        <v>4983</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11599</v>
+        <v>11583</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6944615070292475</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.414458011845095</v>
+        <v>0.4001760613033782</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9314515082493512</v>
+        <v>0.9301742530827846</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -7425,19 +7425,19 @@
         <v>27574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19269</v>
+        <v>19790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34007</v>
+        <v>35060</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6141405575583494</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4291568247079314</v>
+        <v>0.4407677722127225</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7574144152492104</v>
+        <v>0.7808671574657771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -7446,19 +7446,19 @@
         <v>36222</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28062</v>
+        <v>27809</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>44795</v>
+        <v>43842</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6315803192049652</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4893018580893781</v>
+        <v>0.4848815675593364</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7810464120308834</v>
+        <v>0.7644296454712061</v>
       </c>
     </row>
     <row r="30">
@@ -7488,19 +7488,19 @@
         <v>12091</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6019</v>
+        <v>6218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19605</v>
+        <v>19328</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2692866256001872</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1340588160804319</v>
+        <v>0.1384787620118107</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4366424603404067</v>
+        <v>0.4304685681749199</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -7509,19 +7509,19 @@
         <v>12091</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5601</v>
+        <v>6245</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20936</v>
+        <v>20392</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2108175139173095</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09766542013593613</v>
+        <v>0.1088877464886609</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3650418914103846</v>
+        <v>0.3555612718523058</v>
       </c>
     </row>
     <row r="31">
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6180</v>
+        <v>5914</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1778612793083162</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4962719818360644</v>
+        <v>0.4749231894120104</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6662</v>
+        <v>5837</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02988797610611651</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1483845950587675</v>
+        <v>0.1300107258142739</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -7580,19 +7580,19 @@
         <v>3557</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>825</v>
+        <v>860</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9862</v>
+        <v>9245</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06201681864231907</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0143791068574649</v>
+        <v>0.01499905809899653</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1719587927597549</v>
+        <v>0.1611939408765574</v>
       </c>
     </row>
     <row r="32">
@@ -7613,19 +7613,19 @@
         <v>17618</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02328403183368698</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -7634,19 +7634,19 @@
         <v>22539</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0202874622297828</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -7655,19 +7655,19 @@
         <v>40157</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0215015043184581</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="33">
@@ -7684,19 +7684,19 @@
         <v>691650</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.9140745167195761</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>952</v>
@@ -7705,19 +7705,19 @@
         <v>974281</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8769543746595749</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1604</v>
@@ -7726,19 +7726,19 @@
         <v>1665932</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8919933761697458</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="34">
@@ -7755,19 +7755,19 @@
         <v>39095</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05166760908736998</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>100</v>
@@ -7776,19 +7776,19 @@
         <v>104647</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09419304000257224</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>139</v>
@@ -7797,19 +7797,19 @@
         <v>143742</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07696411833733068</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="35">
@@ -7826,19 +7826,19 @@
         <v>10440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01379671260441581</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -7847,19 +7847,19 @@
         <v>10536</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009483059478946494</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -7868,19 +7868,19 @@
         <v>20975</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01123071000688428</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="36">
